--- a/Hardware/duty_cycle_estimation_simple.xlsx
+++ b/Hardware/duty_cycle_estimation_simple.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanshipley/Documents/GitHub/Solar_LoRa_GPS/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192C9208-19A5-3E41-A825-0F803C4F98E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F94504-A62E-3D4C-8C74-C1629B05C4E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6580" yWindow="6360" windowWidth="28040" windowHeight="17440" xr2:uid="{E2E9AFC3-FA1C-9B4B-8FE9-BCC23FCC5826}"/>
+    <workbookView xWindow="3660" yWindow="6760" windowWidth="30880" windowHeight="17440" xr2:uid="{E2E9AFC3-FA1C-9B4B-8FE9-BCC23FCC5826}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>current</t>
   </si>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB99DDD-1A9F-C848-8298-CA37B913D409}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -429,7 +429,7 @@
         <v>4</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -466,27 +466,27 @@
       </c>
       <c r="B5" s="1">
         <f>(C1*60) - (C2*60)</f>
-        <v>720</v>
+        <v>7020</v>
       </c>
       <c r="C5" s="1">
         <f>B5/ (B5+B6)</f>
-        <v>0.8</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="D5" s="1">
         <f>(A5*C5) + (A6*C6)</f>
-        <v>594.4</v>
+        <v>90.05</v>
       </c>
       <c r="E5" s="1">
         <f>D5/1000</f>
-        <v>0.59439999999999993</v>
+        <v>9.0049999999999991E-2</v>
       </c>
       <c r="F5" s="1">
         <f>D5*24</f>
-        <v>14265.599999999999</v>
+        <v>2161.1999999999998</v>
       </c>
       <c r="G5" s="1">
         <f>(F5/1000) * 3.3</f>
-        <v>47.076479999999997</v>
+        <v>7.1319599999999994</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -499,13 +499,95 @@
       </c>
       <c r="C6" s="1">
         <f>B6 / (B5+B6)</f>
-        <v>0.2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <f>(C8*60) - (C9*60)</f>
+        <v>7020</v>
+      </c>
+      <c r="C12" s="1">
+        <f>B12/ (B12+B13)</f>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="D12" s="1">
+        <f>(A12*C12) + (A13*C13)</f>
+        <v>75.424999999999997</v>
+      </c>
+      <c r="E12" s="1">
+        <f>D12/1000</f>
+        <v>7.5424999999999992E-2</v>
+      </c>
+      <c r="F12" s="1">
+        <f>D12*24</f>
+        <v>1810.1999999999998</v>
+      </c>
+      <c r="G12" s="1">
+        <f>(F12/1000) * 3.3</f>
+        <v>5.9736599999999989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>2900</v>
+      </c>
+      <c r="B13" s="1">
+        <f>C9*60</f>
+        <v>180</v>
+      </c>
+      <c r="C13" s="1">
+        <f>B13 / (B12+B13)</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
